--- a/data/trans_camb/P55_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P55_5-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -555,287 +564,205 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,07</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.952775520153282</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.354184118258217</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.476423345040317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,62; 27,55</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 20,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 18,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.56052602058054</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.684793109766108</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.309416309818485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>50,95%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>97,21%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>60,64%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.76117069554507</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.25593917780188</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>18.66450332107777</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-77,19; 799,26</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-60,33; 590,32</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.4992414017604159</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.128495550560713</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.6588542837842741</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,63</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.7550264940336043</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="n">
+        <v>-0.5278254420227858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-46,4; 41,04</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,85; 7,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-28,51; 26,68</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="n">
+        <v>6.752262316310564</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-21,46%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-13,95%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-16,67%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-7.796514114679908</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.418539463746946</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.879957613184235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-89,51; 419,84</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 287,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-82,5; 331,52</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-44.00927793625944</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.75682979253586</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-26.48637621904084</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,52</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>42.48567477107169</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.955144953822449</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>26.27458634167016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,59; 18,88</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,88; 8,12</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 10,55</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.1996884009174649</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1779966601549308</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1576634289457284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>37,8%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>22,7%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>34,39%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.8966865950669877</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.8219828175306007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-58,91; 277,27</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-68,1; 320,43</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-39,11; 196,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>4.4139370310689</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>2.745392902071826</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.132204538724591</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -843,287 +770,207 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-4,94</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,42</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>5.532299566469558</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.780476630666951</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3.530609267103148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-12,8; 0,88</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-8,56; 9,05</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-8,05; 3,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.554961570975337</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.196125479195505</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.701661245229361</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-68,47%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-26,69%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>20.25754764621854</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.574643440836658</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>11.14917916479188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-58,71; 154,97</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-68,73; 56,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.4871920450256875</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.3026696929856245</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.4346044084675831</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-5,0</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-12,88</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-8,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.5512059504164709</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.6592524191717615</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3545885362009816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-15,78; 5,2</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-25,13; -2,41</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-17,23; -1,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>3.029679842319611</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>3.414590089801558</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>2.113427197590319</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-38,95%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-86,05%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-62,62%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-4.222932584762219</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.1276989006145368</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.152507181267028</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-85,52; 98,3</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-88,65; -8,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-11.03199662640612</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.890504168114528</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-7.824479750468351</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-6,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.797861978233543</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>8.912040754272956</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.489720391936122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-18,72; 0,0</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-14,1; 35,39</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-10,57; 21,5</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.6262602778304711</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.01182036415524626</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.2433172713172494</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>29,23%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>9,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="n">
+        <v>-0.5994969976246499</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.6830001189242146</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-71,56; 509,15</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-75,61; 375,23</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="n">
+        <v>1.494463025728415</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.6440428712905085</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1131,93 +978,307 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-4.429273839328235</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-13.35977010790763</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-8.453958345806347</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-12,22; 12,36</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 8,16</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-7,0; 6,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-15.25167408119983</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-26.82018519916518</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-17.05400887471921</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-13,51%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-5,94%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>6.101531806182609</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>-2.587786781655448</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>-1.616762914994902</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-61,2; 115,83</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-37,18; 110,57</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-44,9; 62,26</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.3545838240171944</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.8641318629810694</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.6148579166028338</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.8391768242453606</v>
+      </c>
+      <c r="D32" s="6" t="inlineStr"/>
+      <c r="E32" s="6" t="n">
+        <v>-0.883565533654167</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>1.146104108613374</v>
+      </c>
+      <c r="D33" s="6" t="inlineStr"/>
+      <c r="E33" s="6" t="n">
+        <v>0.008625652842833715</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-6.990860399317516</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1.25883782694266</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-1.429536172827504</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-22.44379324390154</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-17.12073906437043</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-13.0219446206825</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>26.54323653343804</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>14.99869119010883</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.07750426931111203</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.1170871091486587</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr"/>
+      <c r="D38" s="6" t="n">
+        <v>-0.7712760776462912</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.8077203831215066</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="n">
+        <v>3.83911641304067</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>2.663074176463418</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-1.603893982349577</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.03229461016493324</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-0.7769138766928432</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-11.09263580718723</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-4.717301126318003</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-6.675518643057273</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>12.88478075096991</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>6.112178297134399</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>6.055554878992931</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.1032686918572407</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.003398552401844831</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.06251882388206799</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.5972348299097701</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.4158168371372647</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.4429168323557316</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>1.215283411245089</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.8104286824846836</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.6234196619121741</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1225,14 +1286,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
